--- a/biology/Botanique/Boesenbergia/Boesenbergia.xlsx
+++ b/biology/Botanique/Boesenbergia/Boesenbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boesenbergia est un genre de plante de la famille des Zingibéracées.
 En 1891, Carl Ernst Otto Kuntze a nommé ce genre en l'honneur de sa chère sœur Clara et de son mari Walter Boesenberg.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (16 juil. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (16 juil. 2010) :
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Espèces aux noms obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 sept. 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (12 sept. 2011) :
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 juil. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 juil. 2010) :
 Boesenbergia armeniaca
 Boesenbergia aurantiaca
 Boesenbergia basispicata
@@ -646,9 +664,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (16 juil. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (16 juil. 2010) :
 Boesenbergia rotunda (L.) Mansf.</t>
         </is>
       </c>
